--- a/src/main/resources/doc/Database/数据库模块划分.xlsx
+++ b/src/main/resources/doc/Database/数据库模块划分.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB12F34-C4CC-4608-907E-7CC2FC6FEB74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D757420-1137-4F98-87C3-941B9B318B24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="1656" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户模块" sheetId="4" r:id="rId1"/>
@@ -211,10 +211,6 @@
     <t>品牌id(外键)</t>
   </si>
   <si>
-    <t>订单表order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order_number</t>
   </si>
   <si>
@@ -515,6 +511,10 @@
   </si>
   <si>
     <t>活动结束时间</t>
+  </si>
+  <si>
+    <t>订单表order_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -572,10 +572,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -871,11 +871,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -998,16 +998,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1190,11 +1190,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1233,12 +1233,12 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,11 +1274,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1305,19 +1305,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
         <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,12 +1334,12 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -1354,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,12 +1374,12 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -1394,12 +1394,12 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -1414,12 +1414,12 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -1434,12 +1434,12 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -1454,15 +1454,15 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
         <v>136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>137</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1471,7 +1471,7 @@
         <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,12 +1491,12 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1564,11 +1564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1595,7 +1595,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1607,63 +1607,63 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1678,49 +1678,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
         <v>153</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>154</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>156</v>
       </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1747,24 +1747,24 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1779,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,21 +1787,21 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1816,12 +1816,12 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1836,12 +1836,12 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -1853,24 +1853,24 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1894,11 +1894,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1925,19 +1925,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>112</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1971,12 +1971,12 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1988,24 +1988,24 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
         <v>119</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2029,11 +2029,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2116,11 +2116,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2147,24 +2147,24 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
         <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -2179,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,11 +2232,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2263,24 +2263,24 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2295,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2303,21 +2303,21 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2332,12 +2332,12 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2352,12 +2352,12 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2369,24 +2369,24 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,11 +2410,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2497,11 +2497,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2584,11 +2584,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2688,11 +2688,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2719,24 +2719,24 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -2751,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,11 +2775,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2806,24 +2806,24 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
         <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -2838,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2862,11 +2862,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2893,19 +2893,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,12 +2939,12 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2956,24 +2956,24 @@
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
         <v>117</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>118</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
         <v>119</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,11 +3029,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3060,7 +3060,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -3072,12 +3072,12 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -3089,12 +3089,12 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -3129,24 +3129,24 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3170,11 +3170,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3201,10 +3201,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -3216,24 +3216,24 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3285,11 +3285,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3316,10 +3316,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -3331,7 +3331,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,12 +3348,12 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -3365,12 +3365,12 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -3385,12 +3385,12 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3422,18 +3422,18 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3460,10 +3460,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -3475,24 +3475,24 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
